--- a/biology/Zoologie/Firmicus_dewitzi/Firmicus_dewitzi.xlsx
+++ b/biology/Zoologie/Firmicus_dewitzi/Firmicus_dewitzi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Firmicus dewitzi est une espèce d'araignées aranéomorphes de la famille des Thomisidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Décrite à partir d'une population observée sur des Tamaris en Egypte[1], cette espèce peut également être trouvée en Israël ainsi qu'en Iran[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Décrite à partir d'une population observée sur des Tamaris en Egypte, cette espèce peut également être trouvée en Israël ainsi qu'en Iran.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle mesure entre 4,5 et 5,5 mm et la femelle entre 5,1 et 6,8 mm. Les deux sexes affichent un jaune très pâle, quasiment blanc[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle mesure entre 4,5 et 5,5 mm et la femelle entre 5,1 et 6,8 mm. Les deux sexes affichent un jaune très pâle, quasiment blanc.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce a été décrite en 1899 par Eugène Simon. L'épithète spécifique rend hommage à M. C. J. Dewitz, qui a collecté les mâles holotypes[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été décrite en 1899 par Eugène Simon. L'épithète spécifique rend hommage à M. C. J. Dewitz, qui a collecté les mâles holotypes.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Eugène Simon, « Arachnides recueillis par M. C. J. Dewitz en 1898, à Bir-Hooker (Wadi Natron), en Egypte », Bulletin de la Société Entomologique de France, vol. 4, no 13,‎ 1899, p. 244-247 (lire en ligne)</t>
         </is>
